--- a/Verifications.xlsx
+++ b/Verifications.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90695e31ef878e66/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90695e31ef878e66/Desktop/ESE Project/LosESEHermanos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A91A3937-6DCB-43F2-A120-D2D5042BE98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{A91A3937-6DCB-43F2-A120-D2D5042BE98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D95A94AD-23EA-4950-8955-03A412610F68}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{452D06E5-9E90-4C6E-A38F-17722A561388}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>Diagram Type</t>
   </si>
@@ -203,15 +203,162 @@
   </si>
   <si>
     <t>Allocation diagram</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We impleneted traffic lights for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lane</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We impleneted traffic lights for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multiple</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lanes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We implemented </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Emergency State</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We implemented </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pedstrian Traffic Light</t>
+    </r>
+  </si>
+  <si>
+    <t>This version was far too simple</t>
+  </si>
+  <si>
+    <t>This version lacked the emergency response</t>
+  </si>
+  <si>
+    <t>This version lacked support of Pedstrian Lights</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Further improvments can be made in the domain of supporting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Night time scenario</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -238,12 +385,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -560,53 +719,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D889114A-DEDE-4B87-A829-2477E943F657}">
-  <dimension ref="B2:E27"/>
+  <dimension ref="B1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -615,260 +772,361 @@
         <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="2:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+    <row r="7" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+    <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+    <row r="9" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
+    <row r="11" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
+    <row r="12" spans="2:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+    <row r="13" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+    <row r="14" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
+    <row r="15" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
+    <row r="16" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="2:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+    <row r="21" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="31" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
